--- a/Documents/Logboek.xlsx
+++ b/Documents/Logboek.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quinten.callaert\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calla\Documents\GitHub\GIP\root\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D03F28E-43B8-4219-BD2F-0AF9E8305223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B142792-DE89-4C98-A75E-A337938A06E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1729011F-A918-4011-A8EF-74B4FC21F294}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1729011F-A918-4011-A8EF-74B4FC21F294}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Logboek: Quinten</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Totaal uren:</t>
+  </si>
+  <si>
+    <t>Redesing profile page</t>
+  </si>
+  <si>
+    <t>Redesing contact page, login and singup page + admin page</t>
   </si>
 </sst>
 </file>
@@ -123,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-813]dd\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -208,11 +214,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -249,6 +266,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -270,7 +295,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -566,27 +591,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9CE403-46E2-4BC0-B7A1-4A4847909946}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -597,7 +622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -608,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -619,7 +644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -630,7 +655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44928</v>
       </c>
@@ -641,7 +666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44930</v>
       </c>
@@ -652,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44931</v>
       </c>
@@ -663,7 +688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44932</v>
       </c>
@@ -674,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44933</v>
       </c>
@@ -685,7 +710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44934</v>
       </c>
@@ -696,7 +721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44936</v>
       </c>
@@ -707,7 +732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44949</v>
       </c>
@@ -718,7 +743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44957</v>
       </c>
@@ -729,7 +754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
@@ -740,7 +765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44974</v>
       </c>
@@ -751,7 +776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44981</v>
       </c>
@@ -762,7 +787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44992</v>
       </c>
@@ -773,7 +798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>45043</v>
       </c>
@@ -784,7 +809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>45044</v>
       </c>
@@ -795,7 +820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>45045</v>
       </c>
@@ -806,7 +831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>45050</v>
       </c>
@@ -817,13 +842,38 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>45057</v>
+      </c>
+      <c r="B23" s="16">
+        <v>180</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>45057</v>
+      </c>
+      <c r="B24" s="18">
+        <v>360</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="13">
-        <f>SUM(B3:B22)/60</f>
-        <v>46.416666666666664</v>
+      <c r="B28" s="13">
+        <f>SUM(B3:B24)/60</f>
+        <v>55.416666666666664</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Logboek.xlsx
+++ b/Documents/Logboek.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calla\Documents\GitHub\GIP\root\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devlo\Documents\GitHub\GIP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B142792-DE89-4C98-A75E-A337938A06E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7619557B-B670-4A34-A87B-6A5630729ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1729011F-A918-4011-A8EF-74B4FC21F294}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{1729011F-A918-4011-A8EF-74B4FC21F294}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Quinten" sheetId="1" r:id="rId1"/>
+    <sheet name="Manu" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Logboek: Quinten</t>
   </si>
@@ -120,6 +119,75 @@
   </si>
   <si>
     <t>Redesing contact page, login and singup page + admin page</t>
+  </si>
+  <si>
+    <t>Tijd (in min)</t>
+  </si>
+  <si>
+    <t>Functie analyse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create database </t>
+  </si>
+  <si>
+    <t>Technishe analyse</t>
+  </si>
+  <si>
+    <t>index.php // nav.php</t>
+  </si>
+  <si>
+    <t>product.php</t>
+  </si>
+  <si>
+    <t>Product page // footer.php</t>
+  </si>
+  <si>
+    <t>Contact page // Footer fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login pasword hash foutcode // create artikelen database en connect </t>
+  </si>
+  <si>
+    <t>code comments // search bar // pasword hash</t>
+  </si>
+  <si>
+    <t>check admin login</t>
+  </si>
+  <si>
+    <t>file upload // add specs // correct images</t>
+  </si>
+  <si>
+    <t>specs // artikelen.php</t>
+  </si>
+  <si>
+    <t>Artikel pagina // front page fixes</t>
+  </si>
+  <si>
+    <t>artikkelen pagina // aanpassingen</t>
+  </si>
+  <si>
+    <t>responsive // artikelen pagina</t>
+  </si>
+  <si>
+    <t>winkelwagen</t>
+  </si>
+  <si>
+    <t>code comments // mobiel responsive</t>
+  </si>
+  <si>
+    <t>monografie</t>
+  </si>
+  <si>
+    <t>schopping card // edit article</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>Uren Manu</t>
+  </si>
+  <si>
+    <t>Algemeen totaal:</t>
   </si>
 </sst>
 </file>
@@ -127,7 +195,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-813]dd\ mmm\ yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -145,16 +213,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -177,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -186,39 +257,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -229,54 +275,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -591,25 +604,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9CE403-46E2-4BC0-B7A1-4A4847909946}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -622,33 +635,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>180</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -656,224 +669,233 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>44928</v>
       </c>
-      <c r="B6" s="2">
-        <v>120</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="5">
+        <v>120</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>44930</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>210</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>44931</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>255</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>44932</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>360</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>44933</v>
       </c>
-      <c r="B10" s="2">
-        <v>120</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="5">
+        <v>120</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>44934</v>
       </c>
-      <c r="B11" s="2">
-        <v>120</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="5">
+        <v>120</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>44936</v>
       </c>
-      <c r="B12" s="2">
-        <v>120</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="5">
+        <v>120</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>44949</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>60</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>44957</v>
       </c>
-      <c r="B14" s="2">
-        <v>120</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="5">
+        <v>120</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="4">
         <v>44971</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>60</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="4">
         <v>44974</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>45</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="4">
         <v>44981</v>
       </c>
-      <c r="B17" s="2">
-        <v>120</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="5">
+        <v>120</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="4">
         <v>44992</v>
       </c>
-      <c r="B18" s="2">
-        <v>120</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="5">
+        <v>120</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>45043</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="5">
         <v>85</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>45044</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="5">
         <v>240</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>45045</v>
       </c>
-      <c r="B21" s="11">
-        <v>120</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="5">
+        <v>120</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>45050</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="5">
         <v>240</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>45057</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="5">
         <v>180</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>45057</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="5">
         <v>360</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="2">
         <f>SUM(B3:B24)/60</f>
         <v>55.416666666666664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2">
+        <f>SUM(Quinten!B28,Manu!B29)</f>
+        <v>114.41666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -883,4 +905,316 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2473305A-C7A0-49F5-A9C1-CB7F950FD28F}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>180</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>150</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>180</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44924</v>
+      </c>
+      <c r="B7" s="5">
+        <v>180</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44925</v>
+      </c>
+      <c r="B8" s="5">
+        <v>90</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44930</v>
+      </c>
+      <c r="B9" s="5">
+        <v>210</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44931</v>
+      </c>
+      <c r="B10" s="5">
+        <v>90</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44932</v>
+      </c>
+      <c r="B11" s="5">
+        <v>300</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44933</v>
+      </c>
+      <c r="B12" s="5">
+        <v>360</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44936</v>
+      </c>
+      <c r="B13" s="5">
+        <v>120</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44949</v>
+      </c>
+      <c r="B14" s="5">
+        <v>60</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44957</v>
+      </c>
+      <c r="B15" s="5">
+        <v>120</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44963</v>
+      </c>
+      <c r="B16" s="5">
+        <v>120</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44971</v>
+      </c>
+      <c r="B17" s="5">
+        <v>180</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B18" s="5">
+        <v>120</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45006</v>
+      </c>
+      <c r="B19" s="5">
+        <v>120</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>45051</v>
+      </c>
+      <c r="B20" s="5">
+        <v>210</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>45052</v>
+      </c>
+      <c r="B21" s="5">
+        <v>120</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>45055</v>
+      </c>
+      <c r="B22" s="5">
+        <v>60</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>45057</v>
+      </c>
+      <c r="B23" s="5">
+        <v>330</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>45058</v>
+      </c>
+      <c r="B24" s="5">
+        <v>150</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>45069</v>
+      </c>
+      <c r="B25" s="8">
+        <v>60</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B3:B25)/60</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="2">
+        <f>SUM(Quinten!B28,Manu!B29)</f>
+        <v>114.41666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Logboek.xlsx
+++ b/Documents/Logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devlo\Documents\GitHub\GIP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calla\Documents\GitHub\GIP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7619557B-B670-4A34-A87B-6A5630729ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44978D36-98F1-433F-9587-7536A7EF3BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{1729011F-A918-4011-A8EF-74B4FC21F294}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1729011F-A918-4011-A8EF-74B4FC21F294}"/>
   </bookViews>
   <sheets>
     <sheet name="Quinten" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Logboek: Quinten</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Algemeen totaal:</t>
+  </si>
+  <si>
+    <t>Code in monografie geplaatst</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -248,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -271,25 +274,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -606,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9CE403-46E2-4BC0-B7A1-4A4847909946}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,11 +636,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -636,266 +654,274 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>180</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>60</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>44928</v>
       </c>
-      <c r="B6" s="5">
-        <v>120</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="4">
+        <v>120</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>44930</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>210</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>44931</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>255</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>44932</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>360</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>44933</v>
       </c>
-      <c r="B10" s="5">
-        <v>120</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="4">
+        <v>120</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>44934</v>
       </c>
-      <c r="B11" s="5">
-        <v>120</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="4">
+        <v>120</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>44936</v>
       </c>
-      <c r="B12" s="5">
-        <v>120</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="4">
+        <v>120</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>44949</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>60</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>44957</v>
       </c>
-      <c r="B14" s="5">
-        <v>120</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="4">
+        <v>120</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>44971</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>60</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>44974</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>45</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>44981</v>
       </c>
-      <c r="B17" s="5">
-        <v>120</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="4">
+        <v>120</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>44992</v>
       </c>
-      <c r="B18" s="5">
-        <v>120</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="4">
+        <v>120</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>45043</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>85</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>45044</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>240</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>45045</v>
       </c>
-      <c r="B21" s="5">
-        <v>120</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="4">
+        <v>120</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>45050</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>240</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>45057</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>180</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>45057</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>360</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="A25" s="6">
+        <v>45071</v>
+      </c>
+      <c r="B25" s="11">
+        <v>270</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="2">
-        <f>SUM(B3:B24)/60</f>
-        <v>55.416666666666664</v>
+        <f>SUM(B4:B25)/60</f>
+        <v>59.416666666666664</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B31" s="2">
         <f>SUM(Quinten!B28,Manu!B29)</f>
-        <v>114.41666666666666</v>
+        <v>118.41666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -911,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2473305A-C7A0-49F5-A9C1-CB7F950FD28F}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -923,11 +949,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -941,260 +967,260 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>180</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>150</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>180</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>44924</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>180</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>44925</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>90</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>44930</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>210</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>44931</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>90</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>44932</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>300</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>44933</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>360</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>44936</v>
       </c>
-      <c r="B13" s="5">
-        <v>120</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="4">
+        <v>120</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>44949</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>60</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>44957</v>
       </c>
-      <c r="B15" s="5">
-        <v>120</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="4">
+        <v>120</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>44963</v>
       </c>
-      <c r="B16" s="5">
-        <v>120</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="4">
+        <v>120</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>44971</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>180</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>44994</v>
       </c>
-      <c r="B18" s="5">
-        <v>120</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="4">
+        <v>120</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>45006</v>
       </c>
-      <c r="B19" s="5">
-        <v>120</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="4">
+        <v>120</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>45051</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>210</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>45052</v>
       </c>
-      <c r="B21" s="5">
-        <v>120</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="4">
+        <v>120</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>45055</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>60</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>45057</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>330</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>45058</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>150</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>45069</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>60</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B29">
@@ -1203,12 +1229,12 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B31" s="2">
         <f>SUM(Quinten!B28,Manu!B29)</f>
-        <v>114.41666666666666</v>
+        <v>118.41666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Logboek.xlsx
+++ b/Documents/Logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calla\Documents\GitHub\GIP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devlo\Documents\GitHub\GIP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44978D36-98F1-433F-9587-7536A7EF3BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF36B019-4BDF-4BB5-A68F-881AC7BB6407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1729011F-A918-4011-A8EF-74B4FC21F294}"/>
+    <workbookView xWindow="7110" yWindow="0" windowWidth="20490" windowHeight="16305" activeTab="1" xr2:uid="{1729011F-A918-4011-A8EF-74B4FC21F294}"/>
   </bookViews>
   <sheets>
     <sheet name="Quinten" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>Logboek: Quinten</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Code in monografie geplaatst</t>
+  </si>
+  <si>
+    <t>Handleiding</t>
+  </si>
+  <si>
+    <t>Handleiding // finisching monografie</t>
   </si>
 </sst>
 </file>
@@ -291,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -303,11 +309,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -624,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9CE403-46E2-4BC0-B7A1-4A4847909946}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,11 +641,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -899,10 +904,10 @@
       <c r="A25" s="6">
         <v>45071</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="9">
         <v>270</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -921,7 +926,7 @@
       </c>
       <c r="B31" s="2">
         <f>SUM(Quinten!B28,Manu!B29)</f>
-        <v>118.41666666666666</v>
+        <v>119.91666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -937,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2473305A-C7A0-49F5-A9C1-CB7F950FD28F}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,11 +954,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1219,13 +1224,35 @@
         <v>48</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>45075</v>
+      </c>
+      <c r="B26" s="7">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>45076</v>
+      </c>
+      <c r="B27" s="7">
+        <v>60</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B29">
-        <f>SUM(B3:B25)/60</f>
-        <v>59</v>
+        <f>SUM(B3:B27)/60</f>
+        <v>60.5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1234,7 +1261,7 @@
       </c>
       <c r="B31" s="2">
         <f>SUM(Quinten!B28,Manu!B29)</f>
-        <v>118.41666666666666</v>
+        <v>119.91666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Logboek.xlsx
+++ b/Documents/Logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devlo\Documents\GitHub\GIP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calla\Documents\GitHub\GIP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF36B019-4BDF-4BB5-A68F-881AC7BB6407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FE8BCE-5DD6-4735-94A1-9D6E6B09BC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="0" windowWidth="20490" windowHeight="16305" activeTab="1" xr2:uid="{1729011F-A918-4011-A8EF-74B4FC21F294}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1729011F-A918-4011-A8EF-74B4FC21F294}"/>
   </bookViews>
   <sheets>
     <sheet name="Quinten" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>Logboek: Quinten</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Handleiding // finisching monografie</t>
+  </si>
+  <si>
+    <t>afwerking monografie</t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -293,11 +296,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -313,6 +327,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -627,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9CE403-46E2-4BC0-B7A1-4A4847909946}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,22 +928,33 @@
         <v>51</v>
       </c>
     </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>45076</v>
+      </c>
+      <c r="B26" s="12">
+        <v>60</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="2">
-        <f>SUM(B4:B25)/60</f>
-        <v>59.416666666666664</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+        <f>SUM(B3:B26)/60</f>
+        <v>60.916666666666664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B30" s="2">
         <f>SUM(Quinten!B28,Manu!B29)</f>
-        <v>119.91666666666666</v>
+        <v>121.41666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +971,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1289,7 @@
       </c>
       <c r="B31" s="2">
         <f>SUM(Quinten!B28,Manu!B29)</f>
-        <v>119.91666666666666</v>
+        <v>121.41666666666666</v>
       </c>
     </row>
   </sheetData>
